--- a/chinancoron2020.xlsx
+++ b/chinancoron2020.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -750,6 +750,40 @@
       </c>
       <c r="E21">
         <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B22">
+        <v>28060</v>
+      </c>
+      <c r="C22">
+        <v>3697</v>
+      </c>
+      <c r="D22">
+        <v>24702</v>
+      </c>
+      <c r="E22">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B23">
+        <v>31211</v>
+      </c>
+      <c r="C23">
+        <v>3151</v>
+      </c>
+      <c r="D23">
+        <v>26359</v>
+      </c>
+      <c r="E23">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/chinancoron2020.xlsx
+++ b/chinancoron2020.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -771,7 +771,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1">
-        <v>43866</v>
+        <v>43867</v>
       </c>
       <c r="B23">
         <v>31211</v>
@@ -784,6 +784,23 @@
       </c>
       <c r="E23">
         <v>637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B24">
+        <v>34598</v>
+      </c>
+      <c r="C24">
+        <v>3401</v>
+      </c>
+      <c r="D24">
+        <v>27657</v>
+      </c>
+      <c r="E24">
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/chinancoron2020.xlsx
+++ b/chinancoron2020.xlsx
@@ -363,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -801,6 +801,23 @@
       </c>
       <c r="E24">
         <v>723</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B25">
+        <v>37251</v>
+      </c>
+      <c r="C25">
+        <v>2657</v>
+      </c>
+      <c r="D25">
+        <v>28942</v>
+      </c>
+      <c r="E25">
+        <v>812</v>
       </c>
     </row>
   </sheetData>
